--- a/medicine/Enfance/Shirley_(série_littéraire)/Shirley_(série_littéraire).xlsx
+++ b/medicine/Enfance/Shirley_(série_littéraire)/Shirley_(série_littéraire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Shirley_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Shirley_(série_littéraire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Shirley (nom original : Shirley Flight, Air Hostess) est une série littéraire britannique de quinze romans pour la jeunesse écrite par l'auteur britannique Edward Home-Gall (1896-1974).
 En France, quinze romans sur seize ont été publiés de 1962 à 1973 par les éditions ODEJ dans la Collection Spirale. La série n'est plus éditée en France depuis 1973.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shirley_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Shirley_(série_littéraire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>L'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'étranger, la série Shirley a paru sous le nom d'auteur de Judith Dale - pseudonyme d'Edward Home-Gall - puis sous le nom de Trudi Arlen, second écrivain de la série.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Shirley_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Shirley_(série_littéraire)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Thème de la série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Shirley est une hôtesse de l'air anglaise de la Transcontinental Air Lines. Le lecteur suit ses aventures, depuis sa formation à l'école d'hôtesses de l'air jusqu'aux aventures qu'elle vit au cours des divers vols.
 Sa meilleure amie, Wendy Moreland, une rousse spontanée, travaille pour la même compagnie aérienne. Les autres personnages récurrents sont : le commandant de bord Morley Clifford et le copilote Tony Luckworth, lequel est amoureux de Shirley.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Shirley_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Shirley_(série_littéraire)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Liste des titres parus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Note : la 1re date est celle de la 1re édition française. Les huit premiers titres de la série ne possédant pas d'indication de copyright, leur année de publication est donc inconnue.
 1962 : Shirley, hôtesse de l'air (Shirley Flight, air hostess) — Illustré par Vanni Tealdi. Traduit par Lola Tranec.
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shirley_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Shirley_(série_littéraire)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une série quasi identique est parue aux États-Unis de 1947 à 1964 : Vicki Barr (deux titres sur seize ont paru en France)[1]. L’héroïne y est également hôtesse de l'air. La série britannique Shirley s'en serait-elle inspirée ? (voir le site consacré à Vicki Barr)
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une série quasi identique est parue aux États-Unis de 1947 à 1964 : Vicki Barr (deux titres sur seize ont paru en France). L’héroïne y est également hôtesse de l'air. La série britannique Shirley s'en serait-elle inspirée ? (voir le site consacré à Vicki Barr)
 </t>
         </is>
       </c>
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Shirley_(s%C3%A9rie_litt%C3%A9raire)</t>
+          <t>Shirley_(série_littéraire)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Parution en bande dessinée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1972 à 1977 : bandes dessinées en petit format chez Artima.</t>
         </is>
